--- a/sweetest/sample/sweetest_sample/element/Baidu-Elements.xlsx
+++ b/sweetest/sample/sweetest_sample/element/Baidu-Elements.xlsx
@@ -16,14 +16,14 @@
     <definedName name="产品管理系统首页">#REF!</definedName>
     <definedName name="通用" localSheetId="0">elements!#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">elements!$A$9:$A$9</definedName>
+    <definedName name="页面" localSheetId="0">elements!$A$13:$A$13</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,15 +49,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索页导航栏#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="s_tab"]//a[text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="#"]/h3/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度搜索链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度搜索页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*link#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>link_text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
+    <t>partial_link_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@name="#"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -65,87 +181,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页面标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例片段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>partial_link_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*链接#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索页导航栏#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.baidu.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class="s_tab"]//a[text()="#"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索结果#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="#"]/h3/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度搜索链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度搜索页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -700,18 +736,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="3"/>
@@ -719,10 +755,10 @@
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="3"/>
@@ -730,145 +766,173 @@
     <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
+      <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
+      <c r="A9" s="3"/>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -974,103 +1038,103 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="9"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="9"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="6"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="6"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="3"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="5"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="6"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="3"/>
       <c r="E46" s="6"/>
     </row>
@@ -1256,6 +1320,34 @@
       <c r="D72" s="3"/>
       <c r="E72" s="6"/>
     </row>
+    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sweetest/sample/sweetest_sample/element/Baidu-Elements.xlsx
+++ b/sweetest/sample/sweetest_sample/element/Baidu-Elements.xlsx
@@ -710,16 +710,16 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="67.375" customWidth="1"/>
-    <col min="5" max="5" width="37.375" customWidth="1"/>
+    <col min="4" max="4" width="35.25" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">

--- a/sweetest/sample/sweetest_sample/element/Baidu-Elements.xlsx
+++ b/sweetest/sample/sweetest_sample/element/Baidu-Elements.xlsx
@@ -16,14 +16,14 @@
     <definedName name="产品管理系统首页">#REF!</definedName>
     <definedName name="通用" localSheetId="0">elements!#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">elements!$A$13:$A$13</definedName>
+    <definedName name="页面" localSheetId="0">elements!$A$14:$A$14</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用例片段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>搜索框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,55 +129,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>link#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>link_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>*link#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>partial_link_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>xpath#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>class#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>class_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>//*[@name="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>url#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>partial_link_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@name="#"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -707,19 +711,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="35.25" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="67.375" customWidth="1"/>
+    <col min="5" max="5" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -766,14 +770,10 @@
     <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -782,126 +782,126 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>39</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>18</v>
@@ -911,21 +911,27 @@
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -936,10 +942,10 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1066,14 +1072,14 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
@@ -1097,17 +1103,17 @@
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="3"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="9"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1120,233 +1126,240 @@
     <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="6"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="7"/>
       <c r="D45" s="3"/>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="7"/>
       <c r="D46" s="3"/>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="5"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
-      <c r="B49" s="5"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
-      <c r="B50" s="3"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="3"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
-      <c r="B51" s="5"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="3"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
-      <c r="B53" s="5"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
-      <c r="B55" s="5"/>
+      <c r="B55" s="3"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
-      <c r="B57" s="5"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="3"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
-      <c r="B59" s="5"/>
+      <c r="B59" s="3"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="5"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
-      <c r="B60" s="3"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="5"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
-      <c r="B61" s="5"/>
+      <c r="B61" s="3"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
-      <c r="B62" s="3"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="3"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="5"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="5"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
-      <c r="B64" s="3"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
-      <c r="B65" s="5"/>
+      <c r="B65" s="3"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="5"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
-      <c r="B66" s="3"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="3"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
-      <c r="B67" s="5"/>
+      <c r="B67" s="3"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="5"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="3"/>
+      <c r="D68" s="5"/>
       <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
-      <c r="B69" s="5"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="3"/>
       <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
-      <c r="B70" s="3"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="3"/>
+      <c r="D70" s="5"/>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
-      <c r="B71" s="5"/>
+      <c r="B71" s="3"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="5"/>
+      <c r="D71" s="3"/>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
-      <c r="B72" s="3"/>
+      <c r="B72" s="5"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="3"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
-      <c r="B73" s="5"/>
+      <c r="B73" s="3"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="5"/>
+      <c r="D73" s="3"/>
       <c r="E73" s="6"/>
     </row>
     <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="5"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="3"/>
+      <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
-      <c r="B75" s="5"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="5"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
-      <c r="B76" s="3"/>
+      <c r="B76" s="5"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="3"/>
+      <c r="D76" s="5"/>
       <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sweetest/sample/sweetest_sample/element/Baidu-Elements.xlsx
+++ b/sweetest/sample/sweetest_sample/element/Baidu-Elements.xlsx
@@ -16,14 +16,14 @@
     <definedName name="产品管理系统首页">#REF!</definedName>
     <definedName name="通用" localSheetId="0">elements!#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">elements!$A$14:$A$14</definedName>
+    <definedName name="页面" localSheetId="0">elements!$A$17:$A$17</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页面标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页面URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用例片段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +178,54 @@
   </si>
   <si>
     <t>https://www.baidu.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//table/tbody/tr[#]/td[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪球行情中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//table/tbody/tr[#]/td[#]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新股预告表格#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,19 +751,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="67.375" customWidth="1"/>
-    <col min="5" max="5" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="35.75" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -748,10 +788,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="3"/>
@@ -759,10 +799,10 @@
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="10" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="3"/>
@@ -770,7 +810,7 @@
     <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -779,194 +819,220 @@
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>40</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
+      <c r="B13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>18</v>
+      <c r="A14" s="3"/>
+      <c r="B14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1079,28 +1145,28 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="4"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
@@ -1110,256 +1176,277 @@
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="9"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="9"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="6"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="6"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="5"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="3"/>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="5"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
-      <c r="B51" s="3"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="3"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
-      <c r="B52" s="5"/>
+      <c r="B52" s="3"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
-      <c r="B53" s="3"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
-      <c r="B54" s="5"/>
+      <c r="B54" s="3"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
-      <c r="B55" s="3"/>
+      <c r="B55" s="5"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="3"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
-      <c r="B56" s="5"/>
+      <c r="B56" s="3"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="5"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
-      <c r="B57" s="3"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
-      <c r="B58" s="5"/>
+      <c r="B58" s="3"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="5"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
-      <c r="B59" s="3"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="3"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
-      <c r="B60" s="5"/>
+      <c r="B60" s="3"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="5"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
-      <c r="B61" s="3"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="3"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
-      <c r="B62" s="5"/>
+      <c r="B62" s="3"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="5"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="3"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="3"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
-      <c r="B64" s="5"/>
+      <c r="B64" s="3"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="5"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
-      <c r="B65" s="3"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="3"/>
+      <c r="D65" s="5"/>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
-      <c r="B66" s="5"/>
+      <c r="B66" s="3"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="5"/>
+      <c r="D66" s="3"/>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
-      <c r="B67" s="3"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="3"/>
+      <c r="D67" s="5"/>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
-      <c r="B68" s="5"/>
+      <c r="B68" s="3"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="5"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
-      <c r="B69" s="3"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="3"/>
+      <c r="D69" s="5"/>
       <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
-      <c r="B70" s="5"/>
+      <c r="B70" s="3"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="5"/>
+      <c r="D70" s="3"/>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
-      <c r="B71" s="3"/>
+      <c r="B71" s="5"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="3"/>
+      <c r="D71" s="5"/>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
-      <c r="B72" s="5"/>
+      <c r="B72" s="3"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="5"/>
+      <c r="D72" s="3"/>
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
-      <c r="B73" s="3"/>
+      <c r="B73" s="5"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="3"/>
+      <c r="D73" s="5"/>
       <c r="E73" s="6"/>
     </row>
     <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
-      <c r="B74" s="5"/>
+      <c r="B74" s="3"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="5"/>
+      <c r="D74" s="3"/>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
-      <c r="B75" s="3"/>
+      <c r="B75" s="5"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="3"/>
+      <c r="D75" s="5"/>
       <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
-      <c r="B76" s="5"/>
+      <c r="B76" s="3"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="5"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
-      <c r="B77" s="3"/>
+      <c r="B77" s="5"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="3"/>
+      <c r="D77" s="5"/>
       <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
